--- a/tl/S50004.MES.BIN.xlsx
+++ b/tl/S50004.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36405660-1AAA-484D-A01D-44CF267D71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B1E4C-462B-41CD-9971-55D3104B9F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="7410" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="16200" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S50004.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Touya</t>
   </si>
   <si>
+    <t>-Do you want to go play together? I'm pretty free.</t>
+  </si>
+  <si>
     <t>Wanna hang out together? I'm pretty free.</t>
   </si>
   <si>
@@ -71,12 +74,18 @@
     <t>5</t>
   </si>
   <si>
+    <t>And, I'm given a scowl.</t>
+  </si>
+  <si>
     <t>Then, she gives me a stern look.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>You always do things like that, don't you?!</t>
+  </si>
+  <si>
     <t>You're always doing stuff like this, aren't you?!</t>
   </si>
   <si>
@@ -89,12 +98,18 @@
     <t>11</t>
   </si>
   <si>
+    <t>C-come on, that's not it, wait a second...</t>
+  </si>
+  <si>
     <t>Woah, hold on, wait a second...</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t>Don't keep saying 'pervert' in a place this like, please....</t>
+  </si>
+  <si>
     <t>Please don't keep calling me a "pervert" here, okay?</t>
   </si>
   <si>
@@ -113,22 +128,34 @@
     <t>19</t>
   </si>
   <si>
+    <t>Somehow, the way she's acting so recklessly, it kind of reminds me of Yuki....</t>
+  </si>
+  <si>
     <t>Somehow, the way she's recklessly acting kind of reminds me of Yuki...</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>Lowest of the low! You're the lowest! The worst! Just go somewhere else!</t>
+  </si>
+  <si>
     <t>That's the worst! Absolutely the worst! Just get out of here!</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>C-come on, that's not it...! Ah, geez, forget it, I'm going home. Alright, see you later!</t>
+  </si>
+  <si>
     <t>No, that's not right... Ah, geez, forget it. I'm going home. See you later!</t>
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>I don't know what she'd tell me if I stayed here any longer. I quickly leave the place.</t>
   </si>
   <si>
     <t>I don't know what would happen if I stayed here any longer, so I quickly leave the scene.</t>
@@ -553,9 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -614,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -634,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -649,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -666,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -678,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -698,22 +723,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -730,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -745,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -762,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -774,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -794,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -806,10 +831,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -826,13 +851,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -841,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -858,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -873,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -890,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -902,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -922,22 +947,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -954,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -966,10 +991,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -986,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -998,10 +1023,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
